--- a/static/inputData/EUGMP_guidlines.xlsx
+++ b/static/inputData/EUGMP_guidlines.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>A</t>
   </si>
@@ -54,7 +54,10 @@
     <t>Guidelines</t>
   </si>
   <si>
-    <t>EU:GMP ISO:2015</t>
+    <t>N/S</t>
+  </si>
+  <si>
+    <t>EU GMP 2022</t>
   </si>
 </sst>
 </file>
@@ -395,13 +398,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="300" zoomScaleNormal="300" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -427,7 +430,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -438,13 +441,13 @@
       <c r="D2">
         <v>3520</v>
       </c>
-      <c r="E2">
-        <v>20</v>
+      <c r="E2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -455,13 +458,13 @@
       <c r="D3">
         <v>3520</v>
       </c>
-      <c r="E3">
-        <v>29</v>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -473,12 +476,12 @@
         <v>352000</v>
       </c>
       <c r="E4">
-        <v>2900</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -490,12 +493,12 @@
         <v>3520000</v>
       </c>
       <c r="E5">
-        <v>29000</v>
+        <v>29300</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -506,13 +509,13 @@
       <c r="D6">
         <v>3520</v>
       </c>
-      <c r="E6">
-        <v>20</v>
+      <c r="E6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -524,12 +527,12 @@
         <v>352000</v>
       </c>
       <c r="E7">
-        <v>2900</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -541,12 +544,12 @@
         <v>3520000</v>
       </c>
       <c r="E8">
-        <v>29000</v>
+        <v>29300</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
